--- a/mbs-perturbation/chatty/elm/smote/chatty_elm__smote_results.xlsx
+++ b/mbs-perturbation/chatty/elm/smote/chatty_elm__smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9243243243243243</v>
+        <v>0.8394160583941606</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7434782608695653</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8240963855421687</v>
+        <v>0.6686046511627907</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9333709768492376</v>
+        <v>0.8293617614269788</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8686131386861314</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="C3" t="n">
-        <v>0.536036036036036</v>
+        <v>0.4926108374384237</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6629526462395543</v>
+        <v>0.60790273556231</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9085340570696219</v>
+        <v>0.7740031601449949</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9297297297297298</v>
+        <v>0.7299270072992701</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7136929460580913</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8075117370892019</v>
+        <v>0.5970149253731344</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9199492222285379</v>
+        <v>0.7730182004375553</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.946524064171123</v>
+        <v>0.8195488721804511</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7564102564102564</v>
+        <v>0.5477386934673367</v>
       </c>
       <c r="D5" t="n">
-        <v>0.840855106888361</v>
+        <v>0.6566265060240963</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9348290598290598</v>
+        <v>0.8044272287362739</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8731707317073171</v>
+        <v>0.8533333333333334</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7991071428571429</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8344988344988346</v>
+        <v>0.6736842105263158</v>
       </c>
       <c r="E6" t="n">
-        <v>0.906448622881356</v>
+        <v>0.8089319470699433</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9084723977237251</v>
+        <v>0.8071752129716018</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7097449284462184</v>
+        <v>0.5314954661284512</v>
       </c>
       <c r="D7" t="n">
-        <v>0.793982942051624</v>
+        <v>0.6407666057297294</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9206263877715625</v>
+        <v>0.7979484595631493</v>
       </c>
     </row>
   </sheetData>
